--- a/Analysis.Tables.xlsx
+++ b/Analysis.Tables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KDValentine/Documents/GitHub/SPP-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/SPP-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_34EB6FF0E67D412A609437AB59DE1BD5DCBE37E8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{66FD1DCA-A522-7F43-B376-CDBA6D27BB8A}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="460" windowWidth="23780" windowHeight="14400" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="82">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -203,11 +204,89 @@
   <si>
     <t>swow.p.fan_ss</t>
   </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>model.3a.a</t>
+  </si>
+  <si>
+    <t>model.3a.b</t>
+  </si>
+  <si>
+    <t>model.3b.a</t>
+  </si>
+  <si>
+    <t>model.3b.b</t>
+  </si>
+  <si>
+    <t>model3c.a</t>
+  </si>
+  <si>
+    <t>model3c.b</t>
+  </si>
+  <si>
+    <t>model3c.c</t>
+  </si>
+  <si>
+    <t>model3.2b.a</t>
+  </si>
+  <si>
+    <t>model3.2a.b</t>
+  </si>
+  <si>
+    <t>model3.2a.a</t>
+  </si>
+  <si>
+    <t>model3.2a.c</t>
+  </si>
+  <si>
+    <t>model3.2b.c</t>
+  </si>
+  <si>
+    <t>model3.2b.b</t>
+  </si>
+  <si>
+    <t>model3.2c.a</t>
+  </si>
+  <si>
+    <t>model3.2c.b</t>
+  </si>
+  <si>
+    <t>model3.2c.c</t>
+  </si>
+  <si>
+    <t>model4a.a</t>
+  </si>
+  <si>
+    <t>model4a.b</t>
+  </si>
+  <si>
+    <t>model4a.c</t>
+  </si>
+  <si>
+    <t>model4b.a</t>
+  </si>
+  <si>
+    <t>model4b.b</t>
+  </si>
+  <si>
+    <t>model4b.c</t>
+  </si>
+  <si>
+    <t>model4c.a</t>
+  </si>
+  <si>
+    <t>model4c.b</t>
+  </si>
+  <si>
+    <t>model4c.c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -240,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +329,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +353,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,6 +362,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -290,6 +381,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -557,10 +651,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1938,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
@@ -2892,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3846,7 +3940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4800,7 +4894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
@@ -5754,7 +5848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6708,7 +6802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7662,108 +7756,124 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AD26"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="1">
+        <v>1.5610000000000001E-2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
@@ -7811,804 +7921,667 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B3" s="1">
+        <v>1.8360000000000001E-2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B4" s="1">
+        <v>1.9359999999999999E-2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B5" s="1">
+        <v>1.941E-2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B7" s="4">
+        <v>2.8340000000000001E-2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="V8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W10" s="1"/>
-      <c r="X10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="Q11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3.1579999999999997E-2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2.8420000000000001E-2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="1"/>
-      <c r="X12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W14" s="1"/>
-      <c r="X14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>13</v>
+      <c r="B14" s="4">
+        <v>3.1710000000000002E-2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
+      <c r="A21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.7289999999999997E-2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="S21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W21" s="2"/>
+      <c r="Y21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4.2639999999999997E-2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="S30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W30" s="2"/>
+      <c r="Y30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analysis.Tables.xlsx
+++ b/Analysis.Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/SPP-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_34EB6FF0E67D412A609437AB59DE1BD5DCBE37E8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{66FD1DCA-A522-7F43-B376-CDBA6D27BB8A}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="11_34EB6FF0E67D412A609437AB59DE1BD5DCBE37E8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{11C63625-62DA-5F4F-B7D0-8A0172257B00}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -655,11 +655,12 @@
   <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="15" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2035,11 +2036,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -7760,7 +7764,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Analysis.Tables.xlsx
+++ b/Analysis.Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/SPP-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="11_34EB6FF0E67D412A609437AB59DE1BD5DCBE37E8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D6B985C3-E91C-F44D-AFD3-8B2380DF5AD6}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_34EB6FF0E67D412A609437AB59DE1BD5DCBE37E8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1675E289-2818-4849-9BD4-BAA4B333386A}"/>
   <bookViews>
     <workbookView xWindow="59200" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Analysis.Tables.xlsx
+++ b/Analysis.Tables.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/SPP-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbievannuland/Documents/GitHub/SPP-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="11_34EB6FF0E67D412A609437AB59DE1BD5DCBE37E8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1675E289-2818-4849-9BD4-BAA4B333386A}"/>
   <bookViews>
-    <workbookView xWindow="59200" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="23820" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -22,11 +21,8 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -234,11 +230,14 @@
   <si>
     <t>model4c.c</t>
   </si>
+  <si>
+    <t>model.3a.d</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -305,7 +304,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +322,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -606,7 +608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1554,7 +1556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2502,7 +2504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3450,7 +3452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4398,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5346,17 +5348,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AD35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -5481,6 +5483,18 @@
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="4">
+        <v>1.941E-2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
@@ -5531,7 +5545,24 @@
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="6"/>
+      <c r="B3" s="4">
+        <v>3.2259999999999997E-2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="Q3" s="4" t="s">
         <v>13</v>
       </c>
@@ -5579,8 +5610,23 @@
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="4">
+        <v>3.3579999999999999E-2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P4" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>13</v>
@@ -5626,6 +5672,18 @@
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="4">
+        <v>3.3660000000000002E-2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R5" s="4" t="s">
         <v>13</v>
       </c>
@@ -5670,9 +5728,27 @@
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="4">
+        <v>3.4689999999999999E-2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>13</v>
@@ -5706,34 +5782,53 @@
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="4" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5741,31 +5836,51 @@
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5773,32 +5888,51 @@
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD9" s="4" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5806,31 +5940,51 @@
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5838,8 +5992,29 @@
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="4">
+        <v>3.6630000000000003E-2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="Q11" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="X11" s="4" t="s">
         <v>13</v>
@@ -5865,249 +6040,444 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3.4909999999999997E-2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="6"/>
-      <c r="W15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="X17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3.8030000000000001E-2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="AB21" s="4" t="s">
         <v>13</v>
@@ -6121,172 +6491,580 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="6"/>
-      <c r="W24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD27" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="B30" s="4">
+        <v>6.2960000000000002E-2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD30" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P33" s="6"/>
-      <c r="W33" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V34" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6294,10 +7072,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+    <sheetView zoomScale="151" zoomScaleNormal="151" zoomScalePageLayoutView="151" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
@@ -7243,10 +8021,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>

--- a/Analysis.Tables.xlsx
+++ b/Analysis.Tables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbievannuland/Documents/GitHub/SPP-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber Gillenwaters\Documents\GitHub\SPP-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BD3511-B80E-433E-BC10-EAA34252B887}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="23820" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="585" yWindow="465" windowWidth="23820" windowHeight="16005" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -237,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -608,49 +609,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -739,7 +740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -789,7 +790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -837,7 +838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -884,7 +885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -928,7 +929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -964,7 +965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -1556,49 +1557,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -2251,7 +2252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -2272,7 +2273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -2401,7 +2402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -2415,7 +2416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -2468,7 +2469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -2504,49 +2505,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -3085,7 +3086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -3332,7 +3333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -3452,49 +3453,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -3908,7 +3909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -4188,7 +4189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -4245,7 +4246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -4353,7 +4354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -4372,7 +4373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -4389,7 +4390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -4400,49 +4401,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -4531,7 +4532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -4629,7 +4630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -4791,7 +4792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -5136,7 +5137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -5193,7 +5194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -5228,7 +5229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -5290,7 +5291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -5301,7 +5302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -5329,7 +5330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -5348,49 +5349,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -5479,7 +5480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -6165,7 +6166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -6265,7 +6266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -6407,7 +6408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
@@ -6451,7 +6452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -6489,7 +6490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
@@ -6533,7 +6534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
@@ -6577,7 +6578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
@@ -6619,7 +6620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -6661,7 +6662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -6781,7 +6782,7 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
@@ -6819,7 +6820,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
@@ -6848,7 +6849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
@@ -6886,7 +6887,7 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -6924,7 +6925,7 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
@@ -6960,7 +6961,7 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -6996,7 +6997,7 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -7032,7 +7033,7 @@
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
@@ -7072,50 +7073,50 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView zoomScale="151" zoomScaleNormal="151" zoomScalePageLayoutView="151" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="151" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -7204,10 +7205,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="4">
+        <v>8.9079999999999993E-3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
@@ -7254,10 +7264,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="4">
+        <v>1.052E-2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="4" t="s">
         <v>13</v>
@@ -7302,10 +7324,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="4">
+        <v>1.0580000000000001E-2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P4" s="4" t="s">
         <v>13</v>
       </c>
@@ -7349,10 +7383,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="4">
+        <v>1.0580000000000001E-2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R5" s="4" t="s">
         <v>13</v>
       </c>
@@ -7393,14 +7439,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="4">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="V6" s="4" t="s">
         <v>13</v>
       </c>
@@ -7429,7 +7493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -7464,7 +7528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -7496,14 +7560,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="B9" s="4">
+        <v>2.307E-2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="W9" s="4" t="s">
         <v>13</v>
       </c>
@@ -7529,13 +7611,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="B10" s="4">
+        <v>2.2509999999999999E-2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="Q10" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="V10" s="4" t="s">
         <v>13</v>
       </c>
@@ -7561,13 +7661,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="4">
+        <v>2.3259999999999999E-2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="Q11" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="X11" s="4" t="s">
         <v>13</v>
       </c>
@@ -7590,7 +7708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -7622,7 +7740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -7654,7 +7772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -7683,7 +7801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -7713,7 +7831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -7742,7 +7860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -7768,14 +7886,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="B18" s="4">
+        <v>2.4369999999999999E-2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="W18" s="4" t="s">
         <v>13</v>
       </c>
@@ -7789,13 +7925,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="V19" s="4" t="s">
         <v>13</v>
       </c>
@@ -7809,7 +7951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -7826,7 +7968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -7846,7 +7988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -7866,7 +8008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -7883,7 +8025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -7901,7 +8043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -7918,7 +8060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -7932,19 +8074,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="B27" s="4">
+        <v>2.716E-2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="W27" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -7955,7 +8115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -7963,7 +8123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -7974,7 +8134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -7985,7 +8145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -7993,7 +8153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -8002,7 +8162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -8010,7 +8170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -8021,20 +8181,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -8123,7 +8283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8185,7 +8345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -8219,7 +8379,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -8256,7 +8416,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8286,12 +8446,12 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -8344,7 +8504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -8376,7 +8536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -8408,7 +8568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -8440,7 +8600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -8469,7 +8629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -8519,7 +8679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -8569,7 +8729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -8616,7 +8776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -8645,7 +8805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -8674,7 +8834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -8703,22 +8863,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -8752,47 +8912,47 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -8823,27 +8983,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>

--- a/Analysis.Tables.xlsx
+++ b/Analysis.Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber Gillenwaters\Documents\GitHub\SPP-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac924\Documents\GitHub\SPP-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BD3511-B80E-433E-BC10-EAA34252B887}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC83DB00-013A-4E01-B96D-68E9ECFF2F7F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="465" windowWidth="23820" windowHeight="16005" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="465" windowWidth="23820" windowHeight="16005" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -271,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +290,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -305,7 +311,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +332,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -612,14 +624,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
@@ -1560,14 +1572,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
@@ -1692,6 +1704,18 @@
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="4">
+        <v>6.7049999999999998E-2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1742,6 +1766,18 @@
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="4">
+        <v>6.9849999999999995E-2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="4" t="s">
         <v>13</v>
@@ -1790,6 +1826,18 @@
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="4">
+        <v>7.0180000000000006E-2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1837,6 +1885,24 @@
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="4">
+        <v>7.2559999999999999E-2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1881,10 +1947,28 @@
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="4">
+        <v>8.2540000000000002E-2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="V6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1913,70 +1997,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="P7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="4" t="s">
+      <c r="V8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1984,9 +2068,30 @@
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="B9" s="4">
+        <v>8.5540000000000005E-2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="W9" s="4" t="s">
         <v>13</v>
@@ -2017,8 +2122,26 @@
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="B10" s="4">
+        <v>8.2680000000000003E-2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="Q10" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>13</v>
@@ -2049,9 +2172,30 @@
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="4">
+        <v>8.5589999999999999E-2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="Q11" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="X11" s="4" t="s">
         <v>13</v>
       </c>
@@ -2074,181 +2218,181 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="P12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="P13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="P14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="6"/>
-      <c r="W15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="P15" s="9"/>
+      <c r="W15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="V16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="V16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="4" t="s">
+      <c r="X17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2256,10 +2400,31 @@
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="B18" s="4">
+        <v>8.6050000000000001E-2</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="W18" s="4" t="s">
         <v>13</v>
       </c>
@@ -2273,146 +2438,146 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="Q19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="Q20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="P21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="P22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="P23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="6"/>
-      <c r="W24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="P24" s="9"/>
+      <c r="W24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="V25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AB26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="4" t="s">
+      <c r="AB26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2420,87 +2585,109 @@
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="B27" s="4">
+        <v>9.7439999999999999E-2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="W27" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="AB27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Q28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="Q28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="Q29" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="P30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="P31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="P32" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P33" s="6"/>
-      <c r="W33" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="P33" s="9"/>
+      <c r="W33" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="V34" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="V34" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Analysis.Tables.xlsx
+++ b/Analysis.Tables.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac924\Documents\GitHub\SPP-Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC83DB00-013A-4E01-B96D-68E9ECFF2F7F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="465" windowWidth="23820" windowHeight="16005" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -238,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -402,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -437,7 +431,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -614,56 +608,56 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.875" style="4"/>
+    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -752,7 +746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -802,7 +796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -850,7 +844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -897,7 +891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -941,7 +935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -977,7 +971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1012,7 +1006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1044,7 +1038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -1077,7 +1071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -1109,7 +1103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1138,7 +1132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -1170,7 +1164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -1202,7 +1196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1231,7 +1225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1261,7 +1255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -1290,7 +1284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -1316,7 +1310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -1337,7 +1331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -1357,7 +1351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -1374,7 +1368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -1394,7 +1388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -1414,7 +1408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -1431,7 +1425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -1449,7 +1443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -1466,7 +1460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -1480,7 +1474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -1492,7 +1486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -1503,7 +1497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1511,7 +1505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -1522,7 +1516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -1533,7 +1527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -1541,7 +1535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -1550,7 +1544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -1558,60 +1552,65 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.875" style="4"/>
+    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1700,7 +1699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1762,7 +1761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1943,7 +1942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1997,7 +1996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="8" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="8" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2218,7 +2217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="8" customFormat="1">
       <c r="A12" s="8" t="s">
         <v>43</v>
       </c>
@@ -2250,7 +2249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="8" customFormat="1">
       <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
@@ -2282,7 +2281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="8" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="8" customFormat="1">
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
@@ -2341,7 +2340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="8" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" s="8" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" s="8" customFormat="1">
       <c r="A19" s="8" t="s">
         <v>49</v>
       </c>
@@ -2458,7 +2457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="8" customFormat="1">
       <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="8" customFormat="1">
       <c r="A21" s="8" t="s">
         <v>48</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="8" customFormat="1">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="8" customFormat="1">
       <c r="A23" s="8" t="s">
         <v>52</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="8" customFormat="1">
       <c r="A24" s="8" t="s">
         <v>54</v>
       </c>
@@ -2550,7 +2549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="8" customFormat="1">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -2567,7 +2566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="8" customFormat="1">
       <c r="A26" s="8" t="s">
         <v>56</v>
       </c>
@@ -2581,7 +2580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="8" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>58</v>
       </c>
@@ -2625,7 +2624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="8" customFormat="1">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" s="8" customFormat="1">
       <c r="A30" s="8" t="s">
         <v>60</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="8" customFormat="1">
       <c r="A31" s="8" t="s">
         <v>61</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" s="8" customFormat="1">
       <c r="A32" s="8" t="s">
         <v>62</v>
       </c>
@@ -2663,7 +2662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="8" customFormat="1">
       <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
@@ -2672,7 +2671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" s="8" customFormat="1">
       <c r="A34" s="8" t="s">
         <v>64</v>
       </c>
@@ -2680,61 +2679,66 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" s="8" customFormat="1">
       <c r="A35" s="8" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.875" style="4"/>
+    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2823,7 +2827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2921,7 +2925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3012,7 +3016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -3083,7 +3087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3115,7 +3119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -3148,7 +3152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -3180,7 +3184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -3209,7 +3213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -3241,7 +3245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -3302,7 +3306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -3361,7 +3365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -3387,7 +3391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -3408,7 +3412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -3428,7 +3432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -3445,7 +3449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -3465,7 +3469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -3502,7 +3506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -3537,7 +3541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -3551,7 +3555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -3563,7 +3567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -3574,7 +3578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -3582,7 +3586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -3593,7 +3597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -3604,7 +3608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -3612,7 +3616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -3621,7 +3625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -3629,60 +3633,1249 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3.5920000000000001E-2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3.6790000000000003E-2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.6769999999999997E-2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3.6839999999999998E-2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4.6039999999999998E-2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="2" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4.6949999999999999E-2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4.7129999999999998E-2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4.7539999999999999E-2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="2" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="2" customFormat="1">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="W15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="2" customFormat="1">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4.9520000000000002E-2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="2" customFormat="1">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="2" customFormat="1">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="2" customFormat="1">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="2" customFormat="1">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="2" customFormat="1">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="7"/>
+      <c r="W24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="2" customFormat="1">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5.7689999999999998E-2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="2" customFormat="1">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="2" customFormat="1">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="2" customFormat="1">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="2" customFormat="1">
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="2" customFormat="1">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="2" customFormat="1">
+      <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="W33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="2" customFormat="1">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="2" customFormat="1">
+      <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.875" style="4"/>
+    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -3771,7 +4964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3821,7 +5014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3869,7 +5062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -3916,7 +5109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3960,7 +5153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -3996,7 +5189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -4031,7 +5224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4063,7 +5256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -4096,7 +5289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -4128,7 +5321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -4157,7 +5350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4189,7 +5382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -4221,7 +5414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -4250,7 +5443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -4280,7 +5473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -4309,7 +5502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -4335,7 +5528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -4356,7 +5549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -4376,7 +5569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -4393,7 +5586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -4413,7 +5606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -4433,7 +5626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -4450,7 +5643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -4468,7 +5661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -4485,7 +5678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -4499,7 +5692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -4511,7 +5704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -4522,7 +5715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -4530,7 +5723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -4541,7 +5734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -4552,7 +5745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -4560,7 +5753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -4569,7 +5762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -4577,1008 +5770,65 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AD35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="6"/>
-      <c r="W15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="X17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="6"/>
-      <c r="W24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P33" s="6"/>
-      <c r="W33" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.875" style="4"/>
+    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -5667,7 +5917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -5729,7 +5979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -5794,7 +6044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -5856,7 +6106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -5912,7 +6162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -5966,7 +6216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -6020,7 +6270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6072,7 +6322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -6124,7 +6374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -6176,7 +6426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -6226,7 +6476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
@@ -6249,7 +6499,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -6301,7 +6551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -6353,7 +6603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -6403,7 +6653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -6453,7 +6703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
@@ -6503,7 +6753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -6551,7 +6801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -6595,7 +6845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
@@ -6639,7 +6889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -6677,7 +6927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
@@ -6721,7 +6971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
@@ -6765,7 +7015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
@@ -6807,7 +7057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -6849,7 +7099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
@@ -6891,7 +7141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
@@ -6931,7 +7181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -6969,7 +7219,7 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
@@ -7007,7 +7257,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
@@ -7036,7 +7286,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
@@ -7074,7 +7324,7 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -7112,7 +7362,7 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
@@ -7148,7 +7398,7 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -7184,7 +7434,7 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -7220,7 +7470,7 @@
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
@@ -7256,54 +7506,59 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="151" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.875" style="4"/>
+    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -7392,7 +7647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -7451,7 +7706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -7511,7 +7766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -7570,7 +7825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -7626,7 +7881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -7680,7 +7935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -7715,7 +7970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -7747,7 +8002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -7798,7 +8053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -7848,7 +8103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -7895,7 +8150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -7927,7 +8182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -7959,7 +8214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -7988,7 +8243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -8018,7 +8273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -8047,7 +8302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -8073,7 +8328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -8112,7 +8367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -8138,7 +8393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -8155,7 +8410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -8175,7 +8430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -8195,7 +8450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -8212,7 +8467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -8230,7 +8485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -8247,7 +8502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -8261,7 +8516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -8291,7 +8546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -8302,7 +8557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -8310,7 +8565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -8321,7 +8576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -8332,7 +8587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -8340,7 +8595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -8349,7 +8604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -8357,31 +8612,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -8470,7 +8730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8532,7 +8792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -8566,7 +8826,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -8603,7 +8863,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8633,12 +8893,12 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="4" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -8691,7 +8951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="5" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -8723,7 +8983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -8755,7 +9015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -8787,7 +9047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="5" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -8816,7 +9076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="4" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -8866,7 +9126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="4" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -8916,7 +9176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -8963,7 +9223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="5" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -8992,7 +9252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="5" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -9021,7 +9281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -9050,22 +9310,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -9099,47 +9359,47 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -9170,32 +9430,37 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="2" customFormat="1">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Analysis.Tables.xlsx
+++ b/Analysis.Tables.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KDValentine/Documents/GitHub/SPP-Analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="11440" yWindow="460" windowWidth="21740" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -18,6 +23,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -608,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -618,11 +626,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="4" customWidth="1"/>
@@ -657,7 +665,7 @@
     <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -746,10 +754,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="4">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
@@ -796,11 +819,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="6"/>
+      <c r="B3" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="Q3" s="4" t="s">
         <v>13</v>
       </c>
@@ -844,13 +884,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P4" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="Q4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R4" s="4" t="s">
         <v>13</v>
       </c>
@@ -891,10 +949,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R5" s="4" t="s">
         <v>13</v>
       </c>
@@ -935,14 +1008,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="B6" s="4">
+        <v>3.95E-2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="Q6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="T6" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="V6" s="4" t="s">
         <v>13</v>
       </c>
@@ -971,81 +1061,102 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="4" t="s">
+      <c r="P7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="V8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="B9" s="4">
+        <f>0.04279</f>
+        <v>4.2790000000000002E-2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="Q9" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="T9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="W9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1071,13 +1182,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="B10" s="4">
+        <v>4.0509999999999997E-2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="Q10" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="T10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="V10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1103,13 +1232,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="4">
+        <v>4.2819999999999997E-2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="Q11" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="T11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="X11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1132,195 +1282,218 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="4" t="s">
+      <c r="P12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="4" t="s">
+      <c r="P13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="4" t="s">
+      <c r="P14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="6"/>
-      <c r="W15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="4" t="s">
+      <c r="P15" s="7"/>
+      <c r="W15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="4" t="s">
+      <c r="V16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="X17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P18" s="6"/>
+      <c r="B18" s="4">
+        <v>5.101E-2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="Q18" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="W18" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="Y18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="AB18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1331,153 +1504,168 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
-      <c r="A20" s="4" t="s">
+      <c r="Q19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
-      <c r="A21" s="4" t="s">
+      <c r="Q20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
-      <c r="A22" s="4" t="s">
+      <c r="P21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="A23" s="4" t="s">
+      <c r="P22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="A24" s="4" t="s">
+      <c r="P23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="6"/>
-      <c r="W24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="A25" s="4" t="s">
+      <c r="P24" s="7"/>
+      <c r="W24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
-      <c r="A26" s="4" t="s">
+      <c r="V25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AB26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AB26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="B27" s="4">
+        <v>6.2960000000000002E-2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="4" t="s">
         <v>13</v>
@@ -1485,85 +1673,89 @@
       <c r="W27" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:30">
-      <c r="A28" s="4" t="s">
+      <c r="Y27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
-      <c r="A29" s="4" t="s">
+      <c r="Q28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="A30" s="4" t="s">
+      <c r="Q29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="4" t="s">
+      <c r="P30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="4" t="s">
+      <c r="P31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="4" t="s">
+      <c r="P32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P33" s="6"/>
-      <c r="W33" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
-      <c r="A34" s="4" t="s">
+      <c r="P33" s="7"/>
+      <c r="W33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="V34" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
-      <c r="A35" s="4" t="s">
+      <c r="V34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1571,11 +1763,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
@@ -1610,7 +1802,7 @@
     <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1699,7 +1891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1761,7 +1953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1821,7 +2013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1880,7 +2072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1942,7 +2134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1996,7 +2188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -2031,7 +2223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="8" customFormat="1">
+    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -2063,7 +2255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -2117,7 +2309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -2167,7 +2359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2217,7 +2409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="8" customFormat="1">
+    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>43</v>
       </c>
@@ -2249,7 +2441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="8" customFormat="1">
+    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
@@ -2281,7 +2473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="8" customFormat="1">
+    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
@@ -2310,7 +2502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="8" customFormat="1">
+    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
@@ -2340,7 +2532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="8" customFormat="1">
+    <row r="16" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
@@ -2369,7 +2561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="8" customFormat="1">
+    <row r="17" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
@@ -2395,7 +2587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -2437,7 +2629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="8" customFormat="1">
+    <row r="19" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>49</v>
       </c>
@@ -2457,7 +2649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="8" customFormat="1">
+    <row r="20" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
@@ -2474,7 +2666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="8" customFormat="1">
+    <row r="21" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>48</v>
       </c>
@@ -2494,7 +2686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="8" customFormat="1">
+    <row r="22" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
@@ -2514,7 +2706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="8" customFormat="1">
+    <row r="23" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>52</v>
       </c>
@@ -2531,7 +2723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="8" customFormat="1">
+    <row r="24" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>54</v>
       </c>
@@ -2549,7 +2741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="8" customFormat="1">
+    <row r="25" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -2566,7 +2758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="8" customFormat="1">
+    <row r="26" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>56</v>
       </c>
@@ -2580,7 +2772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -2613,7 +2805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="8" customFormat="1">
+    <row r="28" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>58</v>
       </c>
@@ -2624,7 +2816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="8" customFormat="1">
+    <row r="29" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -2632,7 +2824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="8" customFormat="1">
+    <row r="30" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>60</v>
       </c>
@@ -2643,7 +2835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="8" customFormat="1">
+    <row r="31" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>61</v>
       </c>
@@ -2654,7 +2846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="8" customFormat="1">
+    <row r="32" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>62</v>
       </c>
@@ -2662,7 +2854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="8" customFormat="1">
+    <row r="33" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
@@ -2671,7 +2863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="8" customFormat="1">
+    <row r="34" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>64</v>
       </c>
@@ -2679,7 +2871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="8" customFormat="1">
+    <row r="35" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>65</v>
       </c>
@@ -2687,11 +2879,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2703,7 +2890,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
@@ -2738,7 +2925,7 @@
     <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2827,7 +3014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2877,7 +3064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2925,7 +3112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -2972,7 +3159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3016,7 +3203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -3052,7 +3239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -3087,7 +3274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3119,7 +3306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -3152,7 +3339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -3184,7 +3371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -3213,7 +3400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -3245,7 +3432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -3277,7 +3464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -3306,7 +3493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -3336,7 +3523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -3365,7 +3552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -3391,7 +3578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -3412,7 +3599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -3432,7 +3619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -3449,7 +3636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -3469,7 +3656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -3489,7 +3676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -3506,7 +3693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -3524,7 +3711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -3541,7 +3728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -3555,7 +3742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -3567,7 +3754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -3578,7 +3765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -3586,7 +3773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -3597,7 +3784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -3608,7 +3795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -3616,7 +3803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -3625,7 +3812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -3633,18 +3820,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3652,11 +3834,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -3691,7 +3873,7 @@
     <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -3780,7 +3962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3848,7 +4030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3914,7 +4096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -3979,7 +4161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -4038,7 +4220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -4098,7 +4280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="2" customFormat="1">
+    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -4133,7 +4315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="2" customFormat="1">
+    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -4165,7 +4347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -4225,7 +4407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -4281,7 +4463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -4337,7 +4519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="2" customFormat="1">
+    <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -4369,7 +4551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="2" customFormat="1">
+    <row r="13" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -4401,7 +4583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="2" customFormat="1">
+    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -4430,7 +4612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="2" customFormat="1">
+    <row r="15" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -4460,7 +4642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="2" customFormat="1">
+    <row r="16" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -4489,7 +4671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="2" customFormat="1">
+    <row r="17" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -4515,7 +4697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -4563,7 +4745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="2" customFormat="1">
+    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -4583,7 +4765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="2" customFormat="1">
+    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -4600,7 +4782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="2" customFormat="1">
+    <row r="21" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -4620,7 +4802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="2" customFormat="1">
+    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -4640,7 +4822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="2" customFormat="1">
+    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -4657,7 +4839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="2" customFormat="1">
+    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -4675,7 +4857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="2" customFormat="1">
+    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -4692,7 +4874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="2" customFormat="1">
+    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -4706,7 +4888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -4751,7 +4933,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="2" customFormat="1">
+    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -4762,7 +4944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="2" customFormat="1">
+    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -4770,7 +4952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="2" customFormat="1">
+    <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -4781,7 +4963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="2" customFormat="1">
+    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -4792,7 +4974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="2" customFormat="1">
+    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -4800,7 +4982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="2" customFormat="1">
+    <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
@@ -4809,7 +4991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="2" customFormat="1">
+    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -4817,18 +4999,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="2" customFormat="1">
+    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4840,7 +5017,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
@@ -4875,7 +5052,7 @@
     <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -4964,7 +5141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -5014,7 +5191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -5062,7 +5239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -5109,7 +5286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -5153,7 +5330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -5189,7 +5366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -5224,7 +5401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -5256,7 +5433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -5289,7 +5466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -5321,7 +5498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -5350,7 +5527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -5382,7 +5559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -5414,7 +5591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -5443,7 +5620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -5473,7 +5650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -5502,7 +5679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -5528,7 +5705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -5549,7 +5726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -5569,7 +5746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -5586,7 +5763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -5606,7 +5783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -5626,7 +5803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -5643,7 +5820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -5661,7 +5838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -5678,7 +5855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -5692,7 +5869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -5704,7 +5881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -5715,7 +5892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -5723,7 +5900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -5734,7 +5911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -5745,7 +5922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -5753,7 +5930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -5762,7 +5939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -5770,18 +5947,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5793,7 +5965,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -5828,7 +6000,7 @@
     <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -5917,7 +6089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -5979,7 +6151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -6044,7 +6216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -6106,7 +6278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -6162,7 +6334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -6216,7 +6388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -6270,7 +6442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6322,7 +6494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -6374,7 +6546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -6426,7 +6598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -6476,7 +6648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
@@ -6499,7 +6671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -6551,7 +6723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -6603,7 +6775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -6653,7 +6825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -6703,7 +6875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
@@ -6753,7 +6925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -6801,7 +6973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -6845,7 +7017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
@@ -6889,7 +7061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -6927,7 +7099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
@@ -6971,7 +7143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
@@ -7015,7 +7187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
@@ -7057,7 +7229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -7099,7 +7271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
@@ -7141,7 +7313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
@@ -7181,7 +7353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -7219,7 +7391,7 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
@@ -7257,7 +7429,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
@@ -7286,7 +7458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
@@ -7324,7 +7496,7 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -7362,7 +7534,7 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
@@ -7398,7 +7570,7 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -7434,7 +7606,7 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -7470,7 +7642,7 @@
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
@@ -7506,11 +7678,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7523,7 +7690,7 @@
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="4" customWidth="1"/>
@@ -7558,7 +7725,7 @@
     <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -7647,7 +7814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -7706,7 +7873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -7766,7 +7933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -7825,7 +7992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -7881,7 +8048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -7935,7 +8102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -7970,7 +8137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -8002,7 +8169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -8053,7 +8220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -8103,7 +8270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -8150,7 +8317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -8182,7 +8349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -8214,7 +8381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -8243,7 +8410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -8273,7 +8440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -8302,7 +8469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -8328,7 +8495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -8367,7 +8534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -8393,7 +8560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -8410,7 +8577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -8430,7 +8597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -8450,7 +8617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -8467,7 +8634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -8485,7 +8652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -8502,7 +8669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -8516,7 +8683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -8546,7 +8713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -8557,7 +8724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -8565,7 +8732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -8576,7 +8743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -8587,7 +8754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -8595,7 +8762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -8604,7 +8771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -8612,18 +8779,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8635,13 +8797,13 @@
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -8730,7 +8892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8792,7 +8954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -8826,7 +8988,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -8863,7 +9025,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8893,12 +9055,12 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" s="5" customFormat="1">
+    <row r="6" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="4" customFormat="1">
+    <row r="7" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -8951,7 +9113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="5" customFormat="1">
+    <row r="8" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -8983,7 +9145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="5" customFormat="1">
+    <row r="9" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -9015,7 +9177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="5" customFormat="1">
+    <row r="10" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -9047,7 +9209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="5" customFormat="1">
+    <row r="11" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -9076,7 +9238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="4" customFormat="1">
+    <row r="12" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -9126,7 +9288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="4" customFormat="1">
+    <row r="13" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -9176,7 +9338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="4" customFormat="1">
+    <row r="14" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -9223,7 +9385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="5" customFormat="1">
+    <row r="15" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -9252,7 +9414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="5" customFormat="1">
+    <row r="16" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -9281,7 +9443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="5" customFormat="1">
+    <row r="17" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -9310,22 +9472,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="2" customFormat="1">
+    <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="2" customFormat="1">
+    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="2" customFormat="1">
+    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -9359,47 +9521,47 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30" s="2" customFormat="1">
+    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="2" customFormat="1">
+    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="2" customFormat="1">
+    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="2" customFormat="1">
+    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="2" customFormat="1">
+    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="2" customFormat="1">
+    <row r="27" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="2" customFormat="1">
+    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="2" customFormat="1">
+    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -9430,37 +9592,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="2" customFormat="1">
+    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="2" customFormat="1">
+    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="2" customFormat="1">
+    <row r="33" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="2" customFormat="1">
+    <row r="34" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="2" customFormat="1">
+    <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Analysis.Tables.xlsx
+++ b/Analysis.Tables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KDValentine/Documents/GitHub/SPP-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/addiew/Documents/SPP-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742FA932-CA9F-2E4D-9241-C77629467003}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11440" yWindow="460" windowWidth="21740" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="13180" yWindow="460" windowWidth="21740" windowHeight="14420" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -240,7 +241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -623,10 +624,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
@@ -1760,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2883,7 +2884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3831,10 +3832,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -5010,11 +5011,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5145,6 +5146,18 @@
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
@@ -5195,7 +5208,24 @@
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="Q3" s="4" t="s">
         <v>13</v>
       </c>
@@ -5243,8 +5273,23 @@
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P4" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>13</v>
@@ -5290,6 +5335,18 @@
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R5" s="4" t="s">
         <v>13</v>
       </c>
@@ -5334,7 +5391,24 @@
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="Q6" s="4" t="s">
         <v>13</v>
       </c>
@@ -5366,70 +5440,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="P7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="4" t="s">
+      <c r="V8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5437,9 +5511,29 @@
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="Q9" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="W9" s="4" t="s">
         <v>13</v>
@@ -5470,6 +5564,24 @@
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="Q10" s="4" t="s">
         <v>13</v>
       </c>
@@ -5502,6 +5614,24 @@
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="Q11" s="4" t="s">
         <v>13</v>
       </c>
@@ -5527,345 +5657,345 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="P12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="P13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="P14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="6"/>
-      <c r="W15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="P15" s="7"/>
+      <c r="W15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="V16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="X17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="P18" s="7"/>
+      <c r="Q18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="Q19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="Q20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="P21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="P22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="P23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="6"/>
-      <c r="W24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="P24" s="7"/>
+      <c r="W24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="V25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AB26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="4" t="s">
+      <c r="AB26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5873,7 +6003,24 @@
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P27" s="6"/>
+      <c r="B27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="Q27" s="4" t="s">
         <v>13</v>
       </c>
@@ -5881,74 +6028,74 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="Q28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="Q29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="P30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="P31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="P32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P33" s="6"/>
-      <c r="W33" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="P33" s="7"/>
+      <c r="W33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="V34" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="V34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5958,7 +6105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -7682,7 +7829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8790,7 +8937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Analysis.Tables.xlsx
+++ b/Analysis.Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/addiew/Documents/SPP-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/SPP-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742FA932-CA9F-2E4D-9241-C77629467003}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="6_{F5B81442-BE6F-554D-A9BE-E9F042DABA82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{CF94C525-F5EF-B54C-B049-90B354458F2D}"/>
   <bookViews>
-    <workbookView xWindow="13180" yWindow="460" windowWidth="21740" windowHeight="14420" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59200" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -242,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,8 +273,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +307,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -314,7 +328,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +355,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2887,14 +2910,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
+      <selection activeCell="A26" sqref="A21:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -3019,6 +3042,15 @@
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="10">
+        <v>2.598E-2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
@@ -3069,6 +3101,15 @@
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="4">
+        <v>2.5739999999999999E-2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="4" t="s">
         <v>13</v>
@@ -3117,6 +3158,15 @@
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="4">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3164,6 +3214,15 @@
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="4">
+        <v>2.5739999999999999E-2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R5" s="4" t="s">
         <v>13</v>
       </c>
@@ -3240,70 +3299,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="P7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="4" t="s">
+      <c r="V8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3401,181 +3460,181 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="P12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="P13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="P14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="6"/>
-      <c r="W15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="P15" s="12"/>
+      <c r="W15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="V16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="V16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="4" t="s">
+      <c r="X17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3637,109 +3696,109 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="P21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="P22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="P23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="6"/>
-      <c r="W24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="P24" s="12"/>
+      <c r="W24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="V25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AB26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="4" t="s">
+      <c r="AB26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3774,55 +3833,55 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="P30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="P31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="P32" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="P33" s="6"/>
-      <c r="W33" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="P33" s="12"/>
+      <c r="W33" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="V34" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="V34" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5014,7 +5073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
@@ -8941,7 +9000,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Analysis.Tables.xlsx
+++ b/Analysis.Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/SPP-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabet\OneDrive\Documents\GitHub\SPP-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="6_{F5B81442-BE6F-554D-A9BE-E9F042DABA82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{CF94C525-F5EF-B54C-B049-90B354458F2D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F0141121-6886-488B-B509-75176B84DCEB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59200" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59196" yWindow="456" windowWidth="33600" windowHeight="20544" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -242,7 +242,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,6 +283,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -328,7 +344,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,6 +380,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -654,42 +679,42 @@
       <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -778,7 +803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -843,7 +868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -908,7 +933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -973,7 +998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1032,7 +1057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1085,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1120,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -1206,7 +1231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -1256,7 +1281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1306,7 +1331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1338,7 +1363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -1370,7 +1395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1399,7 +1424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1429,7 +1454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1458,7 +1483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -1484,7 +1509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -1528,7 +1553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1548,7 +1573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -1565,7 +1590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -1585,7 +1610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -1605,7 +1630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -1622,7 +1647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -1640,7 +1665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1657,7 +1682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -1671,7 +1696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -1707,7 +1732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -1718,7 +1743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -1726,7 +1751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -1737,7 +1762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -1748,7 +1773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1756,7 +1781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
@@ -1765,7 +1790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -1773,7 +1798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -1791,42 +1816,42 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1915,7 +1940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1977,7 +2002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2037,7 +2062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +2121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -2158,7 +2183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -2212,7 +2237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -2247,7 +2272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -2279,7 +2304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -2333,7 +2358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -2383,7 +2408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2433,7 +2458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>43</v>
       </c>
@@ -2465,7 +2490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
@@ -2497,7 +2522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
@@ -2526,7 +2551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
@@ -2556,7 +2581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
@@ -2585,7 +2610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
@@ -2611,7 +2636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -2653,7 +2678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>49</v>
       </c>
@@ -2673,7 +2698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
@@ -2690,7 +2715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>48</v>
       </c>
@@ -2710,7 +2735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
@@ -2730,7 +2755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>52</v>
       </c>
@@ -2747,7 +2772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>54</v>
       </c>
@@ -2765,7 +2790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -2782,7 +2807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>56</v>
       </c>
@@ -2796,7 +2821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -2829,7 +2854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>58</v>
       </c>
@@ -2840,7 +2865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -2848,7 +2873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>60</v>
       </c>
@@ -2859,7 +2884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>61</v>
       </c>
@@ -2870,7 +2895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>62</v>
       </c>
@@ -2878,7 +2903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
@@ -2887,7 +2912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>64</v>
       </c>
@@ -2895,7 +2920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>65</v>
       </c>
@@ -2910,46 +2935,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
-      <selection activeCell="A26" sqref="A21:XFD26"/>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="251" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -3038,7 +3063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3097,7 +3122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3154,11 +3179,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="15">
         <v>2.5700000000000001E-2</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3210,7 +3235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3263,14 +3288,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="10">
+        <v>3.3939999999999998E-2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="V6" s="4" t="s">
         <v>13</v>
       </c>
@@ -3299,7 +3342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -3334,7 +3377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
@@ -3366,14 +3409,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="B9" s="14">
+        <v>3.3980000000000003E-2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="W9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3399,13 +3460,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="B10" s="13">
+        <v>3.3950000000000001E-2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="Q10" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="V10" s="4" t="s">
         <v>13</v>
       </c>
@@ -3431,13 +3510,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="13">
+        <v>3.4029999999999998E-2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="Q11" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X11" s="4" t="s">
         <v>13</v>
       </c>
@@ -3460,7 +3557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
@@ -3492,7 +3589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
@@ -3524,7 +3621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -3553,7 +3650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>45</v>
       </c>
@@ -3583,7 +3680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>46</v>
       </c>
@@ -3612,7 +3709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>47</v>
       </c>
@@ -3638,14 +3735,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="B18" s="13">
+        <v>3.7379999999999997E-2</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="S18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="W18" s="4" t="s">
         <v>13</v>
       </c>
@@ -3659,44 +3771,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="Q19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>48</v>
       </c>
@@ -3716,7 +3828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>53</v>
       </c>
@@ -3736,7 +3848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>52</v>
       </c>
@@ -3753,7 +3865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>54</v>
       </c>
@@ -3771,7 +3883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>55</v>
       </c>
@@ -3788,7 +3900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>56</v>
       </c>
@@ -3802,38 +3914,53 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="B27" s="13">
+        <v>3.9759999999999997E-2</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="S27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="W27" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="Q28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>60</v>
       </c>
@@ -3844,7 +3971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>61</v>
       </c>
@@ -3855,7 +3982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>62</v>
       </c>
@@ -3863,7 +3990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>63</v>
       </c>
@@ -3872,7 +3999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>64</v>
       </c>
@@ -3880,13 +4007,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3898,42 +4026,42 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -4022,7 +4150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -4090,7 +4218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -4156,7 +4284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -4221,7 +4349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -4280,7 +4408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -4340,7 +4468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -4375,7 +4503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -4407,7 +4535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -4467,7 +4595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -4523,7 +4651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -4579,7 +4707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -4611,7 +4739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -4643,7 +4771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -4672,7 +4800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -4702,7 +4830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -4731,7 +4859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -4757,7 +4885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -4805,7 +4933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -4825,7 +4953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -4842,7 +4970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -4862,7 +4990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -4882,7 +5010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -4899,7 +5027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -4917,7 +5045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -4934,7 +5062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -4948,7 +5076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -4993,7 +5121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -5004,7 +5132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -5012,7 +5140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -5023,7 +5151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -5034,7 +5162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -5042,7 +5170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
@@ -5051,7 +5179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -5059,7 +5187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -5077,42 +5205,42 @@
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -5201,7 +5329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -5263,7 +5391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -5328,7 +5456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -5390,7 +5518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -5446,7 +5574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -5499,7 +5627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -5534,7 +5662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -5566,7 +5694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -5619,7 +5747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -5669,7 +5797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -5716,7 +5844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -5748,7 +5876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -5780,7 +5908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -5809,7 +5937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -5839,7 +5967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -5868,7 +5996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -5894,7 +6022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -5915,7 +6043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -5935,7 +6063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -5952,7 +6080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -5972,7 +6100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -5992,7 +6120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -6009,7 +6137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -6027,7 +6155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -6044,7 +6172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -6058,7 +6186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -6087,7 +6215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -6098,7 +6226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -6106,7 +6234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -6117,7 +6245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -6128,7 +6256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -6136,7 +6264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
@@ -6145,7 +6273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -6153,7 +6281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -6171,42 +6299,42 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -6295,7 +6423,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -6357,7 +6485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -6422,7 +6550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -6484,7 +6612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -6540,7 +6668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -6594,7 +6722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -6648,7 +6776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6700,7 +6828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -6752,7 +6880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -6804,7 +6932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -6854,7 +6982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
@@ -6877,7 +7005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -6929,7 +7057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -6981,7 +7109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -7031,7 +7159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -7081,7 +7209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
@@ -7131,7 +7259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -7179,7 +7307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -7223,7 +7351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
@@ -7267,7 +7395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -7305,7 +7433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
@@ -7349,7 +7477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
@@ -7393,7 +7521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
@@ -7435,7 +7563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -7477,7 +7605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
@@ -7519,7 +7647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
@@ -7559,7 +7687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -7597,7 +7725,7 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
@@ -7635,7 +7763,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
@@ -7664,7 +7792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
@@ -7702,7 +7830,7 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -7740,7 +7868,7 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
@@ -7776,7 +7904,7 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -7812,7 +7940,7 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -7848,7 +7976,7 @@
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
@@ -7896,42 +8024,42 @@
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="4.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -8020,7 +8148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -8079,7 +8207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -8139,7 +8267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -8198,7 +8326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -8254,7 +8382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -8308,7 +8436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -8343,7 +8471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -8375,7 +8503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -8426,7 +8554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -8476,7 +8604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -8523,7 +8651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -8555,7 +8683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -8587,7 +8715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -8616,7 +8744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -8646,7 +8774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -8675,7 +8803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -8701,7 +8829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -8740,7 +8868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -8766,7 +8894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -8783,7 +8911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -8803,7 +8931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -8823,7 +8951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -8840,7 +8968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -8858,7 +8986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -8875,7 +9003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -8889,7 +9017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -8919,7 +9047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -8930,7 +9058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -8938,7 +9066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -8949,7 +9077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -8960,7 +9088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -8968,7 +9096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -8977,7 +9105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -8985,7 +9113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -9003,13 +9131,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -9098,7 +9226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -9160,7 +9288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -9194,7 +9322,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -9231,7 +9359,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -9261,12 +9389,12 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -9319,7 +9447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -9351,7 +9479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -9383,7 +9511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -9415,7 +9543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -9444,7 +9572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -9494,7 +9622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -9544,7 +9672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -9591,7 +9719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -9620,7 +9748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -9649,7 +9777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -9678,22 +9806,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -9727,47 +9855,47 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -9798,27 +9926,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
